--- a/hardware/kicad/assembly/bwlc1a-pos.xlsx
+++ b/hardware/kicad/assembly/bwlc1a-pos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEN BUSTAMAN\Documents\GitHub\bwlc1a\hardware\kicad\assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\regia\Documents\GitHub\bwlc1a\hardware\kicad\assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AC4B50-5CAF-4E3C-A6DC-DEB1EF574BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95239E2E-1162-4F7E-81FA-7B46E5F13F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{132F808A-9AC0-4774-B49C-6A11579CA124}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{132F808A-9AC0-4774-B49C-6A11579CA124}"/>
   </bookViews>
   <sheets>
     <sheet name="bwlc1a-pos" sheetId="2" r:id="rId1"/>
@@ -746,19 +746,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D44AB0-B1F9-4F22-A47C-973DA31AAAAE}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -792,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -826,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -843,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -860,7 +860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -877,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -894,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -911,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -928,7 +928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -945,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -962,7 +962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -979,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -996,7 +996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1404,24 +1404,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>58.124200000000002</v>
+        <v>59.5242</v>
       </c>
       <c r="C39">
         <v>15.996</v>
       </c>
       <c r="D39">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1506,12 +1506,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>70.453400000000002</v>
+        <v>70.423400000000001</v>
       </c>
       <c r="C45">
         <v>37.5244</v>
@@ -1523,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1540,15 +1540,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>52.472999999999999</v>
+        <v>52.313000000000002</v>
       </c>
       <c r="C47">
-        <v>6.7396000000000003</v>
+        <v>6.9896000000000003</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1557,24 +1557,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>40.813000000000002</v>
+        <v>41.512999999999998</v>
       </c>
       <c r="C48">
         <v>47.238</v>
       </c>
       <c r="D48">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1619,13 +1619,13 @@
         <v>2.8788</v>
       </c>
       <c r="D51">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1636,13 +1636,13 @@
         <v>47.365000000000002</v>
       </c>
       <c r="D52">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1653,13 +1653,13 @@
         <v>32.455199999999998</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1670,13 +1670,13 @@
         <v>28.827000999999999</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1687,13 +1687,13 @@
         <v>38.068199999999997</v>
       </c>
       <c r="D55">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1704,13 +1704,13 @@
         <v>23.090600999999999</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1812,12 +1812,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
       <c r="B63">
-        <v>56.168399999999998</v>
+        <v>55.958399999999997</v>
       </c>
       <c r="C63">
         <v>16.76652</v>
@@ -1829,12 +1829,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64">
-        <v>55.1524</v>
+        <v>54.942399999999999</v>
       </c>
       <c r="C64">
         <v>16.76652</v>
@@ -1846,7 +1846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1897,12 +1897,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
       <c r="B68">
-        <v>54.136400000000002</v>
+        <v>53.926400000000001</v>
       </c>
       <c r="C68">
         <v>16.7834</v>
@@ -1914,7 +1914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2265,30 +2265,30 @@
         <v>44.119799999999998</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
       <c r="B90">
-        <v>35.639699999999998</v>
+        <v>32.239699999999999</v>
       </c>
       <c r="C90">
-        <v>11.997400000000001</v>
+        <v>13.1874</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E90" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2316,13 +2316,13 @@
         <v>47.7012</v>
       </c>
       <c r="D92">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E92" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>102</v>
       </c>
